--- a/数据整理/stocks/其他/KYG8586D1097-舜宇光学科技.xlsx
+++ b/数据整理/stocks/其他/KYG8586D1097-舜宇光学科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -935,4 +936,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002379</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信香港中小盘股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2535</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002380</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信香港中小盘股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2535</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1916</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009563</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1916</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009562</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1916</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005699</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信新经济灵活配置混合QDII人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005700</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信新经济灵活配置混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/KYG8586D1097-舜宇光学科技.xlsx
+++ b/数据整理/stocks/其他/KYG8586D1097-舜宇光学科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1258,4 +1259,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012348</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘恒生科技指数型发起式证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8449</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012349</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘恒生科技指数型发起式证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3522</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002379</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信香港中小盘股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1897</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002380</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信香港中小盘股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1897</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009562</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1803</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009563</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1803</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1803</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005699</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信新经济灵活配置混合QDII人民币</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005700</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信新经济灵活配置混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/KYG8586D1097-舜宇光学科技.xlsx
+++ b/数据整理/stocks/其他/KYG8586D1097-舜宇光学科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1657,4 +1658,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/KYG8586D1097-舜宇光学科技.xlsx
+++ b/数据整理/stocks/其他/KYG8586D1097-舜宇光学科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1666,7 +1667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,17 +1678,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1697,14 +1718,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.26</v>
+          <t>012349</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘恒生科技指数型发起式证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9524</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1713,14 +1756,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.25</v>
+          <t>009563</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6186</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1729,14 +1794,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.64</v>
+          <t>012348</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘恒生科技指数型发起式证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3271</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1745,13 +1832,265 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>002379</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信香港中小盘股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1917</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002380</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信香港中小盘股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1917</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1513</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009562</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1513</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.41</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/KYG8586D1097-舜宇光学科技.xlsx
+++ b/数据整理/stocks/其他/KYG8586D1097-舜宇光学科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1989,7 +1990,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2000,17 +2001,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2020,14 +2041,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>012348</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘恒生科技指数型发起式证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1069</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.58</v>
       </c>
     </row>
     <row r="3">
@@ -2036,14 +2079,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.26</v>
+          <t>012349</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘恒生科技指数型发起式证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8168</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2052,14 +2117,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.25</v>
+          <t>002379</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信香港中小盘股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2068,14 +2155,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>002380</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信香港中小盘股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.64</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="6">
@@ -2084,13 +2293,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.41</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/KYG8586D1097-舜宇光学科技.xlsx
+++ b/数据整理/stocks/其他/KYG8586D1097-舜宇光学科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2198,7 +2199,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2209,17 +2210,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2229,14 +2250,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.07</v>
+          <t>012348</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘恒生科技指数型发起式证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6303</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2245,14 +2288,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>012349</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘恒生科技指数型发起式证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2372</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>2.58</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="4">
@@ -2261,14 +2394,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>2.26</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="5">
@@ -2277,14 +2410,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>1.25</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="6">
@@ -2293,14 +2426,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>0.64</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="7">
@@ -2309,13 +2442,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
       <c r="D7" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.41</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/KYG8586D1097-舜宇光学科技.xlsx
+++ b/数据整理/stocks/其他/KYG8586D1097-舜宇光学科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>2.87</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>3.07</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>2.58</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>2.26</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>1.25</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>0.64</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>5</v>
       </c>
       <c r="D8" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -661,31 +678,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天弘恒生科技指数型发起式证券投资基金（QDII）A</t>
+          <t>天弘恒生科技指数（QDII）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>33.34</t>
+          <t>39.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.39</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.6303</t>
+          <t>1.5662</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -699,31 +716,31 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘恒生科技指数型发起式证券投资基金（QDII）C</t>
+          <t>天弘恒生科技指数（QDII）C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>25.30</t>
+          <t>37.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.39</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.2372</t>
+          <t>1.4820</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -732,6 +749,138 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012348</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘恒生科技指数型发起式证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6303</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012349</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘恒生科技指数型发起式证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2372</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -939,7 +1088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1261,7 +1410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1659,7 +1808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1981,7 +2130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2227,7 +2376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
